--- a/TestData/OpenEMRTestData.xlsx
+++ b/TestData/OpenEMRTestData.xlsx
@@ -13,7 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="VerifyInvalidCredentialTemplate" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="AddPatient" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
     <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
   <si>
     <t>${username}</t>
   </si>
@@ -60,16 +60,31 @@
     <t>English (Indian)</t>
   </si>
   <si>
-    <t>bala123</t>
-  </si>
-  <si>
-    <t>Desc</t>
-  </si>
-  <si>
     <t>Blank username</t>
   </si>
   <si>
     <t>Invalid crden</t>
+  </si>
+  <si>
+    <t>${firstname}</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>pass</t>
+  </si>
+  <si>
+    <t>Account</t>
+  </si>
+  <si>
+    <t>${scope}</t>
+  </si>
+  <si>
+    <t>acc</t>
+  </si>
+  <si>
+    <t>user</t>
   </si>
 </sst>
 </file>
@@ -402,7 +417,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -419,7 +434,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
@@ -433,7 +448,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -455,25 +470,57 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection sqref="A1:A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>18</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
